--- a/dev/Tutorials/3MKT/outputs/3mkt-04.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-04.xlsx
@@ -10625,7 +10625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10691,25 +10691,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>avg_price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rasm</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>sys_lf</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>local_pct_leg_pax</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>local_pct_bookings</t>
         </is>
@@ -10754,18 +10769,27 @@
         <v>202.925</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>316.0923923857531</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.1726420952327808</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0.08073360729146277</v>
+      </c>
+      <c r="Q2" t="n">
         <v>46.76357013775011</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>48.59677220648022</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>65.40757445115075</v>
       </c>
     </row>
@@ -10808,18 +10832,27 @@
         <v>204.6325</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>316.9262511119165</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.1728120273922055</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0.08148078776591294</v>
+      </c>
+      <c r="Q3" t="n">
         <v>47.14995188441846</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>48.32932207738263</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>65.16489309129247</v>
       </c>
     </row>
@@ -27444,7 +27477,7 @@
         <v>250</v>
       </c>
       <c r="F2" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G2" t="n">
         <v>14097</v>
@@ -27480,7 +27513,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G3" t="n">
         <v>17972</v>
@@ -27524,7 +27557,7 @@
         <v>375</v>
       </c>
       <c r="F4" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G4" t="n">
         <v>24342</v>
@@ -27560,7 +27593,7 @@
         <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G5" t="n">
         <v>30816</v>
@@ -27604,7 +27637,7 @@
         <v>500</v>
       </c>
       <c r="F6" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G6" t="n">
         <v>20148</v>
@@ -27640,7 +27673,7 @@
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G7" t="n">
         <v>27766</v>

--- a/dev/Tutorials/3MKT/outputs/3mkt-04.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-04.xlsx
@@ -10,16 +10,17 @@
     <sheet name="bid_price_history" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="carriers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="carrier_history2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="demand_to_come_summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="demands" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="displacement_history" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="fare_class_mix" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="legbuckets" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="legs" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="pathclasses" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="path_legs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="paths" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="segmentation_by_timeframe" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="cp_segmentation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="demand_to_come_summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="demands" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="displacement_history" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fare_class_mix" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="legbuckets" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="legs" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="pathclasses" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="path_legs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="paths" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="segmentation_by_timeframe" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3760,7 +3761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,6 +3772,381 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>leg_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>flt_no</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>orig</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dest</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gt_sold</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gt_capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>gt_sold_local</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>17542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7170</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2838814.087526017</v>
+      </c>
+      <c r="J2" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>17617</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7127</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2836261.403937324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>201</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>17761</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7192</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2881436.637295275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>202</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17713</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7135</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2855409.772831547</v>
+      </c>
+      <c r="J5" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>23032</v>
+      </c>
+      <c r="G6" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12660</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6727860.912473935</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>112</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>22979</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12489</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6659963.596062669</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>211</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>22988</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12419</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6686713.362704653</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>212</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>23391</v>
+      </c>
+      <c r="G9" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12813</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6815765.227168428</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>path_id</t>
         </is>
       </c>
@@ -3816,7 +4192,17 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>gt_revenue_by_segment_business</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>gt_sold_by_segment_leisure</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue_by_segment_leisure</t>
         </is>
       </c>
     </row>
@@ -3857,6 +4243,12 @@
         <v>446</v>
       </c>
       <c r="J2" t="n">
+        <v>178400</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,7 +4287,13 @@
         <v>1877</v>
       </c>
       <c r="J3" t="n">
+        <v>563100</v>
+      </c>
+      <c r="K3" t="n">
         <v>20</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row r="4">
@@ -3933,7 +4331,13 @@
         <v>970</v>
       </c>
       <c r="J4" t="n">
+        <v>194000</v>
+      </c>
+      <c r="K4" t="n">
         <v>95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19000</v>
       </c>
     </row>
     <row r="5">
@@ -3971,7 +4375,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="n">
+        <v>5550</v>
+      </c>
+      <c r="K5" t="n">
         <v>246</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36900</v>
       </c>
     </row>
     <row r="6">
@@ -4009,7 +4419,13 @@
         <v>44</v>
       </c>
       <c r="J6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="K6" t="n">
         <v>2257</v>
+      </c>
+      <c r="L6" t="n">
+        <v>282125</v>
       </c>
     </row>
     <row r="7">
@@ -4047,7 +4463,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>1178</v>
+      </c>
+      <c r="L7" t="n">
+        <v>117800</v>
       </c>
     </row>
     <row r="8">
@@ -4087,6 +4509,12 @@
         <v>445</v>
       </c>
       <c r="J8" t="n">
+        <v>178000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4125,7 +4553,13 @@
         <v>1914</v>
       </c>
       <c r="J9" t="n">
+        <v>574200</v>
+      </c>
+      <c r="K9" t="n">
         <v>16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4800</v>
       </c>
     </row>
     <row r="10">
@@ -4163,7 +4597,13 @@
         <v>872</v>
       </c>
       <c r="J10" t="n">
+        <v>174400</v>
+      </c>
+      <c r="K10" t="n">
         <v>118</v>
+      </c>
+      <c r="L10" t="n">
+        <v>23600</v>
       </c>
     </row>
     <row r="11">
@@ -4201,7 +4641,13 @@
         <v>48</v>
       </c>
       <c r="J11" t="n">
+        <v>7200</v>
+      </c>
+      <c r="K11" t="n">
         <v>232</v>
+      </c>
+      <c r="L11" t="n">
+        <v>34800</v>
       </c>
     </row>
     <row r="12">
@@ -4239,7 +4685,13 @@
         <v>56</v>
       </c>
       <c r="J12" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K12" t="n">
         <v>2276</v>
+      </c>
+      <c r="L12" t="n">
+        <v>284500</v>
       </c>
     </row>
     <row r="13">
@@ -4277,7 +4729,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1150</v>
+      </c>
+      <c r="L13" t="n">
+        <v>115000</v>
       </c>
     </row>
     <row r="14">
@@ -4317,6 +4775,12 @@
         <v>466</v>
       </c>
       <c r="J14" t="n">
+        <v>186400</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4355,7 +4819,13 @@
         <v>1912</v>
       </c>
       <c r="J15" t="n">
+        <v>573600</v>
+      </c>
+      <c r="K15" t="n">
         <v>19</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5700</v>
       </c>
     </row>
     <row r="16">
@@ -4393,7 +4863,13 @@
         <v>932</v>
       </c>
       <c r="J16" t="n">
+        <v>186400</v>
+      </c>
+      <c r="K16" t="n">
         <v>117</v>
+      </c>
+      <c r="L16" t="n">
+        <v>23400</v>
       </c>
     </row>
     <row r="17">
@@ -4431,7 +4907,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="n">
+        <v>6750</v>
+      </c>
+      <c r="K17" t="n">
         <v>280</v>
+      </c>
+      <c r="L17" t="n">
+        <v>42000</v>
       </c>
     </row>
     <row r="18">
@@ -4469,7 +4951,13 @@
         <v>55</v>
       </c>
       <c r="J18" t="n">
+        <v>6875</v>
+      </c>
+      <c r="K18" t="n">
         <v>2186</v>
+      </c>
+      <c r="L18" t="n">
+        <v>273250</v>
       </c>
     </row>
     <row r="19">
@@ -4507,7 +4995,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1180</v>
+      </c>
+      <c r="L19" t="n">
+        <v>118000</v>
       </c>
     </row>
     <row r="20">
@@ -4547,6 +5041,12 @@
         <v>450</v>
       </c>
       <c r="J20" t="n">
+        <v>180000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4585,7 +5085,13 @@
         <v>1877</v>
       </c>
       <c r="J21" t="n">
+        <v>563100</v>
+      </c>
+      <c r="K21" t="n">
         <v>20</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row r="22">
@@ -4623,7 +5129,13 @@
         <v>905</v>
       </c>
       <c r="J22" t="n">
+        <v>181000</v>
+      </c>
+      <c r="K22" t="n">
         <v>92</v>
+      </c>
+      <c r="L22" t="n">
+        <v>18400</v>
       </c>
     </row>
     <row r="23">
@@ -4661,7 +5173,13 @@
         <v>49</v>
       </c>
       <c r="J23" t="n">
+        <v>7350</v>
+      </c>
+      <c r="K23" t="n">
         <v>268</v>
+      </c>
+      <c r="L23" t="n">
+        <v>40200</v>
       </c>
     </row>
     <row r="24">
@@ -4699,7 +5217,13 @@
         <v>52</v>
       </c>
       <c r="J24" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K24" t="n">
         <v>2259</v>
+      </c>
+      <c r="L24" t="n">
+        <v>282375</v>
       </c>
     </row>
     <row r="25">
@@ -4737,7 +5261,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1163</v>
+      </c>
+      <c r="L25" t="n">
+        <v>116300</v>
       </c>
     </row>
     <row r="26">
@@ -4777,6 +5307,12 @@
         <v>3159</v>
       </c>
       <c r="J26" t="n">
+        <v>1579500</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4815,7 +5351,13 @@
         <v>2198</v>
       </c>
       <c r="J27" t="n">
+        <v>879200</v>
+      </c>
+      <c r="K27" t="n">
         <v>61</v>
+      </c>
+      <c r="L27" t="n">
+        <v>24400</v>
       </c>
     </row>
     <row r="28">
@@ -4853,7 +5395,13 @@
         <v>631</v>
       </c>
       <c r="J28" t="n">
+        <v>189300</v>
+      </c>
+      <c r="K28" t="n">
         <v>188</v>
+      </c>
+      <c r="L28" t="n">
+        <v>56400</v>
       </c>
     </row>
     <row r="29">
@@ -4891,7 +5439,13 @@
         <v>27</v>
       </c>
       <c r="J29" t="n">
+        <v>6075</v>
+      </c>
+      <c r="K29" t="n">
         <v>360</v>
+      </c>
+      <c r="L29" t="n">
+        <v>81000</v>
       </c>
     </row>
     <row r="30">
@@ -4929,7 +5483,13 @@
         <v>57</v>
       </c>
       <c r="J30" t="n">
+        <v>9975</v>
+      </c>
+      <c r="K30" t="n">
         <v>4957</v>
+      </c>
+      <c r="L30" t="n">
+        <v>867475</v>
       </c>
     </row>
     <row r="31">
@@ -4967,7 +5527,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1022</v>
+      </c>
+      <c r="L31" t="n">
+        <v>153300</v>
       </c>
     </row>
     <row r="32">
@@ -5007,6 +5573,12 @@
         <v>3069</v>
       </c>
       <c r="J32" t="n">
+        <v>1534500</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5045,7 +5617,13 @@
         <v>2195</v>
       </c>
       <c r="J33" t="n">
+        <v>878000</v>
+      </c>
+      <c r="K33" t="n">
         <v>53</v>
+      </c>
+      <c r="L33" t="n">
+        <v>21200</v>
       </c>
     </row>
     <row r="34">
@@ -5083,7 +5661,13 @@
         <v>571</v>
       </c>
       <c r="J34" t="n">
+        <v>171300</v>
+      </c>
+      <c r="K34" t="n">
         <v>158</v>
+      </c>
+      <c r="L34" t="n">
+        <v>47400</v>
       </c>
     </row>
     <row r="35">
@@ -5121,7 +5705,13 @@
         <v>25</v>
       </c>
       <c r="J35" t="n">
+        <v>5625</v>
+      </c>
+      <c r="K35" t="n">
         <v>408</v>
+      </c>
+      <c r="L35" t="n">
+        <v>91800</v>
       </c>
     </row>
     <row r="36">
@@ -5159,7 +5749,13 @@
         <v>64</v>
       </c>
       <c r="J36" t="n">
+        <v>11200</v>
+      </c>
+      <c r="K36" t="n">
         <v>4845</v>
+      </c>
+      <c r="L36" t="n">
+        <v>847875</v>
       </c>
     </row>
     <row r="37">
@@ -5197,7 +5793,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1101</v>
+      </c>
+      <c r="L37" t="n">
+        <v>165150</v>
       </c>
     </row>
     <row r="38">
@@ -5237,6 +5839,12 @@
         <v>3026</v>
       </c>
       <c r="J38" t="n">
+        <v>1513000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5275,7 +5883,13 @@
         <v>2153</v>
       </c>
       <c r="J39" t="n">
+        <v>861200</v>
+      </c>
+      <c r="K39" t="n">
         <v>62</v>
+      </c>
+      <c r="L39" t="n">
+        <v>24800</v>
       </c>
     </row>
     <row r="40">
@@ -5313,7 +5927,13 @@
         <v>613</v>
       </c>
       <c r="J40" t="n">
+        <v>183900</v>
+      </c>
+      <c r="K40" t="n">
         <v>200</v>
+      </c>
+      <c r="L40" t="n">
+        <v>60000</v>
       </c>
     </row>
     <row r="41">
@@ -5351,7 +5971,13 @@
         <v>26</v>
       </c>
       <c r="J41" t="n">
+        <v>5850</v>
+      </c>
+      <c r="K41" t="n">
         <v>330</v>
+      </c>
+      <c r="L41" t="n">
+        <v>74250</v>
       </c>
     </row>
     <row r="42">
@@ -5389,7 +6015,13 @@
         <v>59</v>
       </c>
       <c r="J42" t="n">
+        <v>10325</v>
+      </c>
+      <c r="K42" t="n">
         <v>4880</v>
+      </c>
+      <c r="L42" t="n">
+        <v>854000</v>
       </c>
     </row>
     <row r="43">
@@ -5427,7 +6059,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1070</v>
+      </c>
+      <c r="L43" t="n">
+        <v>160500</v>
       </c>
     </row>
     <row r="44">
@@ -5467,7 +6105,13 @@
         <v>3185</v>
       </c>
       <c r="J44" t="n">
+        <v>1592500</v>
+      </c>
+      <c r="K44" t="n">
         <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="45">
@@ -5505,7 +6149,13 @@
         <v>2269</v>
       </c>
       <c r="J45" t="n">
+        <v>907600</v>
+      </c>
+      <c r="K45" t="n">
         <v>61</v>
+      </c>
+      <c r="L45" t="n">
+        <v>24400</v>
       </c>
     </row>
     <row r="46">
@@ -5543,7 +6193,13 @@
         <v>587</v>
       </c>
       <c r="J46" t="n">
+        <v>176100</v>
+      </c>
+      <c r="K46" t="n">
         <v>160</v>
+      </c>
+      <c r="L46" t="n">
+        <v>48000</v>
       </c>
     </row>
     <row r="47">
@@ -5581,7 +6237,13 @@
         <v>29</v>
       </c>
       <c r="J47" t="n">
+        <v>6525</v>
+      </c>
+      <c r="K47" t="n">
         <v>375</v>
+      </c>
+      <c r="L47" t="n">
+        <v>84375</v>
       </c>
     </row>
     <row r="48">
@@ -5619,7 +6281,13 @@
         <v>53</v>
       </c>
       <c r="J48" t="n">
+        <v>9275</v>
+      </c>
+      <c r="K48" t="n">
         <v>4939</v>
+      </c>
+      <c r="L48" t="n">
+        <v>864325</v>
       </c>
     </row>
     <row r="49">
@@ -5657,7 +6325,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1154</v>
+      </c>
+      <c r="L49" t="n">
+        <v>173100</v>
       </c>
     </row>
     <row r="50">
@@ -5697,6 +6371,12 @@
         <v>2176</v>
       </c>
       <c r="J50" t="n">
+        <v>1632000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5735,7 +6415,13 @@
         <v>1219</v>
       </c>
       <c r="J51" t="n">
+        <v>761875</v>
+      </c>
+      <c r="K51" t="n">
         <v>28</v>
+      </c>
+      <c r="L51" t="n">
+        <v>17500</v>
       </c>
     </row>
     <row r="52">
@@ -5773,7 +6459,13 @@
         <v>996</v>
       </c>
       <c r="J52" t="n">
+        <v>448200</v>
+      </c>
+      <c r="K52" t="n">
         <v>115</v>
+      </c>
+      <c r="L52" t="n">
+        <v>51750</v>
       </c>
     </row>
     <row r="53">
@@ -5811,7 +6503,13 @@
         <v>142</v>
       </c>
       <c r="J53" t="n">
+        <v>46150</v>
+      </c>
+      <c r="K53" t="n">
         <v>258</v>
+      </c>
+      <c r="L53" t="n">
+        <v>83850</v>
       </c>
     </row>
     <row r="54">
@@ -5849,7 +6547,13 @@
         <v>201</v>
       </c>
       <c r="J54" t="n">
+        <v>50250</v>
+      </c>
+      <c r="K54" t="n">
         <v>3454</v>
+      </c>
+      <c r="L54" t="n">
+        <v>863500</v>
       </c>
     </row>
     <row r="55">
@@ -5887,7 +6591,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
         <v>1783</v>
+      </c>
+      <c r="L55" t="n">
+        <v>356600</v>
       </c>
     </row>
     <row r="56">
@@ -5927,6 +6637,12 @@
         <v>2065</v>
       </c>
       <c r="J56" t="n">
+        <v>1548750</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5965,7 +6681,13 @@
         <v>1309</v>
       </c>
       <c r="J57" t="n">
+        <v>818125</v>
+      </c>
+      <c r="K57" t="n">
         <v>37</v>
+      </c>
+      <c r="L57" t="n">
+        <v>23125</v>
       </c>
     </row>
     <row r="58">
@@ -6003,7 +6725,13 @@
         <v>994</v>
       </c>
       <c r="J58" t="n">
+        <v>447300</v>
+      </c>
+      <c r="K58" t="n">
         <v>114</v>
+      </c>
+      <c r="L58" t="n">
+        <v>51300</v>
       </c>
     </row>
     <row r="59">
@@ -6041,7 +6769,13 @@
         <v>144</v>
       </c>
       <c r="J59" t="n">
+        <v>46800</v>
+      </c>
+      <c r="K59" t="n">
         <v>249</v>
+      </c>
+      <c r="L59" t="n">
+        <v>80925</v>
       </c>
     </row>
     <row r="60">
@@ -6079,7 +6813,13 @@
         <v>183</v>
       </c>
       <c r="J60" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K60" t="n">
         <v>3552</v>
+      </c>
+      <c r="L60" t="n">
+        <v>888000</v>
       </c>
     </row>
     <row r="61">
@@ -6117,7 +6857,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
         <v>1843</v>
+      </c>
+      <c r="L61" t="n">
+        <v>368600</v>
       </c>
     </row>
     <row r="62">
@@ -6157,6 +6903,12 @@
         <v>2238</v>
       </c>
       <c r="J62" t="n">
+        <v>1678500</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6195,7 +6947,13 @@
         <v>1220</v>
       </c>
       <c r="J63" t="n">
+        <v>762500</v>
+      </c>
+      <c r="K63" t="n">
         <v>22</v>
+      </c>
+      <c r="L63" t="n">
+        <v>13750</v>
       </c>
     </row>
     <row r="64">
@@ -6233,7 +6991,13 @@
         <v>1049</v>
       </c>
       <c r="J64" t="n">
+        <v>472050</v>
+      </c>
+      <c r="K64" t="n">
         <v>113</v>
+      </c>
+      <c r="L64" t="n">
+        <v>50850</v>
       </c>
     </row>
     <row r="65">
@@ -6271,7 +7035,13 @@
         <v>138</v>
       </c>
       <c r="J65" t="n">
+        <v>44850</v>
+      </c>
+      <c r="K65" t="n">
         <v>264</v>
+      </c>
+      <c r="L65" t="n">
+        <v>85800</v>
       </c>
     </row>
     <row r="66">
@@ -6309,7 +7079,13 @@
         <v>189</v>
       </c>
       <c r="J66" t="n">
+        <v>47250</v>
+      </c>
+      <c r="K66" t="n">
         <v>3504</v>
+      </c>
+      <c r="L66" t="n">
+        <v>876000</v>
       </c>
     </row>
     <row r="67">
@@ -6347,7 +7123,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
         <v>1832</v>
+      </c>
+      <c r="L67" t="n">
+        <v>366400</v>
       </c>
     </row>
     <row r="68">
@@ -6387,6 +7169,12 @@
         <v>2166</v>
       </c>
       <c r="J68" t="n">
+        <v>1624500</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6425,7 +7213,13 @@
         <v>1269</v>
       </c>
       <c r="J69" t="n">
+        <v>793125</v>
+      </c>
+      <c r="K69" t="n">
         <v>32</v>
+      </c>
+      <c r="L69" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="70">
@@ -6463,7 +7257,13 @@
         <v>1034</v>
       </c>
       <c r="J70" t="n">
+        <v>465300</v>
+      </c>
+      <c r="K70" t="n">
         <v>116</v>
+      </c>
+      <c r="L70" t="n">
+        <v>52200</v>
       </c>
     </row>
     <row r="71">
@@ -6501,7 +7301,13 @@
         <v>136</v>
       </c>
       <c r="J71" t="n">
+        <v>44200</v>
+      </c>
+      <c r="K71" t="n">
         <v>267</v>
+      </c>
+      <c r="L71" t="n">
+        <v>86775</v>
       </c>
     </row>
     <row r="72">
@@ -6539,7 +7345,13 @@
         <v>171</v>
       </c>
       <c r="J72" t="n">
+        <v>42750</v>
+      </c>
+      <c r="K72" t="n">
         <v>3540</v>
+      </c>
+      <c r="L72" t="n">
+        <v>885000</v>
       </c>
     </row>
     <row r="73">
@@ -6577,7 +7389,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
         <v>1847</v>
+      </c>
+      <c r="L73" t="n">
+        <v>369400</v>
       </c>
     </row>
   </sheetData>
@@ -6599,7 +7417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6806,7 +7624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7415,13 +8233,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10595,25 +11413,151 @@
         <v>803</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>XX</t>
+        </is>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="1" t="n"/>
+      <c r="D157" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5.135</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="n"/>
+      <c r="D158" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>6.6725</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="n"/>
+      <c r="D159" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="1" t="n"/>
+      <c r="D160" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>2.6125</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
+      <c r="D161" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
+      <c r="D162" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>2.2425</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="n"/>
+      <c r="C163" s="1" t="n"/>
+      <c r="D163" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="B80:B155"/>
+    <mergeCell ref="B4:B79"/>
+    <mergeCell ref="C36:C49"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C126:C137"/>
+    <mergeCell ref="C96:C111"/>
+    <mergeCell ref="C156:C163"/>
+    <mergeCell ref="C148:C155"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="C112:C125"/>
+    <mergeCell ref="C50:C61"/>
     <mergeCell ref="C72:C79"/>
     <mergeCell ref="C4:C19"/>
     <mergeCell ref="C138:C147"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A4:A163"/>
     <mergeCell ref="C80:C95"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C126:C137"/>
-    <mergeCell ref="B80:B155"/>
-    <mergeCell ref="B4:B79"/>
-    <mergeCell ref="C36:C49"/>
-    <mergeCell ref="C96:C111"/>
-    <mergeCell ref="A4:A155"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="C112:C125"/>
-    <mergeCell ref="C148:C155"/>
-    <mergeCell ref="C50:C61"/>
-    <mergeCell ref="C62:C71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26923,6 +27867,309 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>booking_class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Y0</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11360</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6651150</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10927</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4571525</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5822</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1873950</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2176</v>
+      </c>
+      <c r="D5" t="n">
+        <v>526675</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21946</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4163150</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8077</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1276450</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Y0</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11532</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6775400</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10916</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4555775</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5918</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1917600</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2207</v>
+      </c>
+      <c r="D11" t="n">
+        <v>528925</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>21887</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4157925</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>8246</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1303700</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27378,7 +28625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27492,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>795</v>
+        <v>645</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27528,7 +28775,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3512</v>
+        <v>2800</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27572,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>439</v>
+        <v>346</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27608,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5508</v>
+        <v>4431</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27652,7 +28899,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1405</v>
+        <v>1109</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27688,7 +28935,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5954</v>
+        <v>4796</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27707,7 +28954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28210,7 +29457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28431,7 +29678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29413,379 +30660,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>leg_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>carrier</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>flt_no</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>orig</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>dest</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>gt_sold</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gt_capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gt_sold_local</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gt_revenue</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>17542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7170</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2838814.087526017</v>
-      </c>
-      <c r="J2" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>17617</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7127</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2836261.403937324</v>
-      </c>
-      <c r="J3" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>201</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>17761</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7192</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2881436.637295275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>202</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>17713</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7135</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2855409.772831547</v>
-      </c>
-      <c r="J5" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>111</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>23032</v>
-      </c>
-      <c r="G6" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12660</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6727860.912473935</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>112</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>22979</v>
-      </c>
-      <c r="G7" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>12489</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6659963.596062669</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>211</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>22988</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12419</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6686713.362704653</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>212</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>23391</v>
-      </c>
-      <c r="G9" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12813</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6815765.227168428</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>